--- a/1.xlsx
+++ b/1.xlsx
@@ -7,17 +7,107 @@
     <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer" sheetId="1" r:id="rId1"/>
+    <sheet name="Product" sheetId="2" r:id="rId2"/>
+    <sheet name="Billing" sheetId="3" r:id="rId3"/>
+    <sheet name="System" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须以xx开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能以xx开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能全是xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 2 3 - _  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># * 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ops_ admin </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>= + -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">= + </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +120,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,8 +155,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -348,50 +454,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1">
-        <v>12</v>
-      </c>
-      <c r="C1">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>33</v>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -412,7 +560,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
